--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\korea_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6F83B-8256-4F38-829C-9570862AFFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226620A6-750F-4B4D-8CCB-CD60D0A67731}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{239C4E1C-79D8-481D-A521-AFBDBCCFDCE3}"/>
+    <workbookView xWindow="1185" yWindow="765" windowWidth="18750" windowHeight="13935" xr2:uid="{239C4E1C-79D8-481D-A521-AFBDBCCFDCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,38 @@
   </si>
   <si>
     <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,6 +421,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,9 +431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C318EA7-A007-4846-948D-C1AF8CF010C3}">
   <dimension ref="B3:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,24 +769,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="10"/>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -985,11 +1017,11 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="F12" s="1">
         <v>7</v>
       </c>
@@ -1140,7 +1172,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1172,7 +1204,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1198,7 +1230,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F19" s="1">
         <v>14</v>
       </c>
@@ -1221,7 +1253,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -1244,7 +1276,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F21" s="1">
         <v>16</v>
       </c>
@@ -1267,19 +1299,19 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="F23" s="17" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1290,8 +1322,32 @@
       <c r="H24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1311,7 +1367,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -1331,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -1351,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1365,7 +1421,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -1379,14 +1435,14 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
@@ -1450,17 +1506,17 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
